--- a/VersionRecords/Version 5.0.0.5 20160912/版本Bug和特性计划及评审表v5.0.0.5_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.0.5 20160912/版本Bug和特性计划及评审表v5.0.0.5_捷豹组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -201,6 +201,14 @@
   </si>
   <si>
     <t>添加收款重复提交问题修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单页面添加截止日期列表，并修改一些页面文案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>new feature</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +388,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="110">
+  <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +713,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -819,7 +833,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="110">
+  <cellStyles count="112">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -878,6 +892,7 @@
     <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -930,6 +945,7 @@
     <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1304,7 +1320,7 @@
   <dimension ref="A1:T176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1684,19 +1700,39 @@
       <c r="S8" s="26"/>
       <c r="T8" s="27"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="30">
+        <v>42621</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="30">
+        <v>42621</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="M9" s="23"/>
       <c r="N9" s="16"/>
       <c r="O9" s="23"/>
